--- a/リファクタ計画表.xlsx
+++ b/リファクタ計画表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fe151b91fdd2313/_◆◆ドキュメント◆◆_/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pg\nameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC36B09D-5EB6-49A6-AABA-E55DB8E9B35B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7F364F-D52E-4BBD-A655-5CE165EA2F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A3BC919A-BF1A-4DAE-A0AC-07EF1C8CA107}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3BC919A-BF1A-4DAE-A0AC-07EF1C8CA107}"/>
   </bookViews>
   <sheets>
     <sheet name="リファクター計画表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>【不具合対応】</t>
     <phoneticPr fontId="2"/>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>CharaListAdapter：データバインディングを活用して値を渡す</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体：外にロジックが漏れ出しているような箇所がないかのチェック</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>触れそうであれば随時リストに追加</t>
+    <rPh sb="0" eb="1">
+      <t>サワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -541,11 +565,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71A84C2-B877-4D91-89F8-1AB0876E05BA}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -622,6 +644,19 @@
         <v>15</v>
       </c>
     </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/リファクタ計画表.xlsx
+++ b/リファクタ計画表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pg\nameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7F364F-D52E-4BBD-A655-5CE165EA2F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD33FED-F4FF-4FF9-87D1-D0260893DEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3BC919A-BF1A-4DAE-A0AC-07EF1C8CA107}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>【不具合対応】</t>
     <phoneticPr fontId="2"/>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>全体：外にロジックが漏れ出しているような箇所がないかのチェック</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
@@ -192,6 +188,48 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵データのDB化：ひとまず名前だけ・初回時の自動登録のみで追加・更新はしない（selectのみで運用）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ウンヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -565,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71A84C2-B877-4D91-89F8-1AB0876E05BA}">
-  <dimension ref="B2:C19"/>
+  <dimension ref="B2:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,15 +684,23 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
